--- a/Interviews_Columns/Interview 4.xlsx
+++ b/Interviews_Columns/Interview 4.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Period 3\LMS Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmad\LMS\_Project\GIT\PROJECT-E4\Interviews_Columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Interview 4 - Antoine" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>Column Name</t>
   </si>
   <si>
-    <t>Column Type</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -197,23 +194,19 @@
   </si>
   <si>
     <t>Student/Exercise</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +218,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,7 +227,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,16 +247,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,102 +537,102 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
+      <c r="E6" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
